--- a/3秒で〇〇/08_3秒で〇〇_テスト仕様書_初版.xlsx
+++ b/3秒で〇〇/08_3秒で〇〇_テスト仕様書_初版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22968" windowHeight="10127" tabRatio="770" activeTab="3"/>
+    <workbookView windowWidth="22968" windowHeight="10127" tabRatio="770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -528,15 +528,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -612,20 +612,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -634,7 +633,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -863,43 +863,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1350,9 +1350,9 @@
   <cellStyles count="16">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="3"/>
-    <cellStyle name="Header2" xfId="2"/>
+    <cellStyle name="通貨" xfId="2" builtinId="4"/>
     <cellStyle name="桁蟻唇Ｆ_Sheet2" xfId="3"/>
-    <cellStyle name="通貨" xfId="4" builtinId="4"/>
+    <cellStyle name="Header2" xfId="4"/>
     <cellStyle name="桁区切り[0]" xfId="5" builtinId="6"/>
     <cellStyle name="パーセント" xfId="6" builtinId="5"/>
     <cellStyle name="Calc Currency (0)" xfId="7"/>
@@ -10313,7 +10313,7 @@
   <sheetPr/>
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="115" zoomScaleSheetLayoutView="140" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="140" zoomScaleNormal="115" zoomScaleSheetLayoutView="140" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
@@ -12325,8 +12325,8 @@
   <sheetPr/>
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:A46"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -12535,16 +12535,18 @@
         <v>96</v>
       </c>
       <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="H7" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I7" s="71"/>
       <c r="J7" s="36">
         <v>1</v>
       </c>
       <c r="K7" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="72"/>
       <c r="N7" s="73"/>
@@ -12563,15 +12565,9 @@
       <c r="G8" s="47"/>
       <c r="H8" s="48"/>
       <c r="I8" s="75"/>
-      <c r="J8" s="36">
-        <v>2</v>
-      </c>
-      <c r="K8" s="72">
-        <v>40277</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="76"/>
       <c r="N8" s="73"/>
       <c r="O8" s="74"/>
@@ -12655,13 +12651,15 @@
         <v>98</v>
       </c>
       <c r="G12" s="54"/>
-      <c r="H12" s="42"/>
+      <c r="H12" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I12" s="71"/>
       <c r="J12" s="36">
         <v>1</v>
       </c>
       <c r="K12" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L12" s="36" t="s">
         <v>43</v>
@@ -12760,13 +12758,15 @@
         <v>100</v>
       </c>
       <c r="G17" s="54"/>
-      <c r="H17" s="42"/>
+      <c r="H17" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I17" s="71"/>
       <c r="J17" s="36">
         <v>1</v>
       </c>
       <c r="K17" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>43</v>
@@ -12954,13 +12954,15 @@
       <c r="E27" s="39"/>
       <c r="F27" s="40"/>
       <c r="G27" s="54"/>
-      <c r="H27" s="42"/>
+      <c r="H27" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I27" s="71"/>
       <c r="J27" s="36">
         <v>1</v>
       </c>
       <c r="K27" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L27" s="36" t="s">
         <v>43</v>
@@ -13051,15 +13053,9 @@
       <c r="G32" s="54"/>
       <c r="H32" s="42"/>
       <c r="I32" s="71"/>
-      <c r="J32" s="36">
-        <v>1</v>
-      </c>
-      <c r="K32" s="72">
-        <v>40268</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="J32" s="36"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="72"/>
       <c r="N32" s="73"/>
       <c r="O32" s="74"/>
@@ -13146,15 +13142,9 @@
       <c r="G37" s="54"/>
       <c r="H37" s="42"/>
       <c r="I37" s="71"/>
-      <c r="J37" s="36">
-        <v>1</v>
-      </c>
-      <c r="K37" s="72">
-        <v>40268</v>
-      </c>
-      <c r="L37" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="72"/>
       <c r="N37" s="73"/>
       <c r="O37" s="74"/>
@@ -13241,15 +13231,9 @@
       <c r="G42" s="54"/>
       <c r="H42" s="42"/>
       <c r="I42" s="71"/>
-      <c r="J42" s="36">
-        <v>1</v>
-      </c>
-      <c r="K42" s="72">
-        <v>40268</v>
-      </c>
-      <c r="L42" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="J42" s="36"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="36"/>
       <c r="M42" s="72"/>
       <c r="N42" s="73"/>
       <c r="O42" s="74"/>
@@ -13336,15 +13320,9 @@
       <c r="G47" s="54"/>
       <c r="H47" s="42"/>
       <c r="I47" s="71"/>
-      <c r="J47" s="36">
-        <v>1</v>
-      </c>
-      <c r="K47" s="72">
-        <v>40268</v>
-      </c>
-      <c r="L47" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="J47" s="36"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="36"/>
       <c r="M47" s="72"/>
       <c r="N47" s="73"/>
       <c r="O47" s="74"/>
@@ -13431,13 +13409,15 @@
       <c r="E52" s="39"/>
       <c r="F52" s="40"/>
       <c r="G52" s="54"/>
-      <c r="H52" s="42"/>
+      <c r="H52" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I52" s="71"/>
       <c r="J52" s="36">
         <v>1</v>
       </c>
       <c r="K52" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L52" s="36" t="s">
         <v>43</v>
@@ -13528,13 +13508,15 @@
       <c r="E57" s="39"/>
       <c r="F57" s="40"/>
       <c r="G57" s="54"/>
-      <c r="H57" s="42"/>
+      <c r="H57" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I57" s="71"/>
       <c r="J57" s="36">
         <v>1</v>
       </c>
       <c r="K57" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L57" s="36" t="s">
         <v>43</v>
@@ -13625,13 +13607,15 @@
       <c r="E62" s="39"/>
       <c r="F62" s="40"/>
       <c r="G62" s="54"/>
-      <c r="H62" s="42"/>
+      <c r="H62" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I62" s="71"/>
       <c r="J62" s="36">
         <v>1</v>
       </c>
       <c r="K62" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L62" s="36" t="s">
         <v>43</v>
@@ -13722,13 +13706,15 @@
       <c r="E67" s="39"/>
       <c r="F67" s="40"/>
       <c r="G67" s="54"/>
-      <c r="H67" s="42"/>
+      <c r="H67" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I67" s="71"/>
       <c r="J67" s="36">
         <v>1</v>
       </c>
       <c r="K67" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L67" s="36" t="s">
         <v>43</v>
@@ -13819,13 +13805,15 @@
       <c r="E72" s="39"/>
       <c r="F72" s="40"/>
       <c r="G72" s="54"/>
-      <c r="H72" s="42"/>
+      <c r="H72" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I72" s="71"/>
       <c r="J72" s="36">
         <v>1</v>
       </c>
       <c r="K72" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L72" s="36" t="s">
         <v>43</v>
@@ -14275,9 +14263,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C86">
       <formula1>$Q$7:$Q$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:I86">
-      <formula1>$S$5:$S$9</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:I11 H12:I26 H27:I31 H32:I51 H52:I56 H57:I61 H62:I66 H67:I71 H77:I86 H72:I76"/>
   </dataValidations>
   <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.393055555555556" bottom="0.196527777777778" header="0.511805555555556" footer="0.196527777777778"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -14293,8 +14279,8 @@
   <sheetPr/>
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -14507,16 +14493,18 @@
         <v>103</v>
       </c>
       <c r="G7" s="54"/>
-      <c r="H7" s="42"/>
+      <c r="H7" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I7" s="71"/>
       <c r="J7" s="36">
         <v>1</v>
       </c>
       <c r="K7" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="72"/>
       <c r="N7" s="73"/>
@@ -14535,15 +14523,9 @@
       <c r="G8" s="56"/>
       <c r="H8" s="48"/>
       <c r="I8" s="75"/>
-      <c r="J8" s="36">
-        <v>2</v>
-      </c>
-      <c r="K8" s="72">
-        <v>40277</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="76"/>
       <c r="N8" s="73"/>
       <c r="O8" s="74"/>
@@ -14627,13 +14609,15 @@
       <c r="E12" s="39"/>
       <c r="F12" s="40"/>
       <c r="G12" s="54"/>
-      <c r="H12" s="42"/>
+      <c r="H12" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I12" s="71"/>
       <c r="J12" s="36">
         <v>1</v>
       </c>
       <c r="K12" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L12" s="36" t="s">
         <v>43</v>
@@ -14734,13 +14718,15 @@
         <v>106</v>
       </c>
       <c r="G17" s="54"/>
-      <c r="H17" s="42"/>
+      <c r="H17" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I17" s="71"/>
       <c r="J17" s="36">
         <v>1</v>
       </c>
       <c r="K17" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>43</v>
@@ -14835,13 +14821,15 @@
         <v>107</v>
       </c>
       <c r="G22" s="54"/>
-      <c r="H22" s="42"/>
+      <c r="H22" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I22" s="71"/>
       <c r="J22" s="36">
         <v>1</v>
       </c>
       <c r="K22" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L22" s="36" t="s">
         <v>43</v>
@@ -15033,13 +15021,15 @@
       <c r="E32" s="39"/>
       <c r="F32" s="40"/>
       <c r="G32" s="54"/>
-      <c r="H32" s="42"/>
+      <c r="H32" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I32" s="71"/>
       <c r="J32" s="36">
         <v>1</v>
       </c>
       <c r="K32" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L32" s="36" t="s">
         <v>43</v>
@@ -15415,13 +15405,15 @@
       <c r="E52" s="39"/>
       <c r="F52" s="40"/>
       <c r="G52" s="54"/>
-      <c r="H52" s="42"/>
+      <c r="H52" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I52" s="71"/>
       <c r="J52" s="36">
         <v>1</v>
       </c>
       <c r="K52" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L52" s="36" t="s">
         <v>43</v>
@@ -15512,13 +15504,15 @@
       <c r="E57" s="39"/>
       <c r="F57" s="40"/>
       <c r="G57" s="54"/>
-      <c r="H57" s="42"/>
+      <c r="H57" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I57" s="71"/>
       <c r="J57" s="36">
         <v>1</v>
       </c>
       <c r="K57" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L57" s="36" t="s">
         <v>43</v>
@@ -15609,13 +15603,15 @@
       <c r="E62" s="39"/>
       <c r="F62" s="40"/>
       <c r="G62" s="54"/>
-      <c r="H62" s="42"/>
+      <c r="H62" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I62" s="71"/>
       <c r="J62" s="36">
         <v>1</v>
       </c>
       <c r="K62" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L62" s="36" t="s">
         <v>43</v>
@@ -15706,13 +15702,15 @@
       <c r="E67" s="39"/>
       <c r="F67" s="40"/>
       <c r="G67" s="54"/>
-      <c r="H67" s="42"/>
+      <c r="H67" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I67" s="71"/>
       <c r="J67" s="36">
         <v>1</v>
       </c>
       <c r="K67" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L67" s="36" t="s">
         <v>43</v>
@@ -15803,13 +15801,15 @@
       <c r="E72" s="39"/>
       <c r="F72" s="40"/>
       <c r="G72" s="54"/>
-      <c r="H72" s="42"/>
+      <c r="H72" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="I72" s="71"/>
       <c r="J72" s="36">
         <v>1</v>
       </c>
       <c r="K72" s="72">
-        <v>40268</v>
+        <v>42407</v>
       </c>
       <c r="L72" s="36" t="s">
         <v>43</v>
@@ -16255,11 +16255,12 @@
     <mergeCell ref="H77:I81"/>
     <mergeCell ref="H2:J3"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C86">
       <formula1>$Q$7:$Q$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:I86">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:I11 H12:I16 H17:I21 H22:I26 H32:I36 H52:I56 H57:I61 H62:I66 H67:I71 H72:I76"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27:I31 H37:I51 H77:I86">
       <formula1>$S$5:$S$9</formula1>
     </dataValidation>
   </dataValidations>

--- a/3秒で〇〇/08_3秒で〇〇_テスト仕様書_初版.xlsx
+++ b/3秒で〇〇/08_3秒で〇〇_テスト仕様書_初版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22968" windowHeight="10127" tabRatio="770" activeTab="5"/>
+    <workbookView windowWidth="22968" windowHeight="10127" tabRatio="770" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -14279,7 +14279,7 @@
   <sheetPr/>
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
@@ -16278,8 +16278,8 @@
   <sheetPr/>
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="115" zoomScaleSheetLayoutView="110" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -16525,15 +16525,9 @@
       <c r="G8" s="47"/>
       <c r="H8" s="48"/>
       <c r="I8" s="75"/>
-      <c r="J8" s="36">
-        <v>2</v>
-      </c>
-      <c r="K8" s="72">
-        <v>40277</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>43</v>
-      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="76"/>
       <c r="N8" s="73"/>
       <c r="O8" s="74"/>
